--- a/project7_cs475/Project7.xlsx
+++ b/project7_cs475/Project7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="460" windowWidth="23040" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8260" yWindow="540" windowWidth="23040" windowHeight="16340" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>GigaMultsPerSecond</t>
   </si>
@@ -84,12 +85,24 @@
   <si>
     <t>OpenMP</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Performance (GigaMultsPerSecond)</t>
+  </si>
+  <si>
+    <t>1 Thread OpenMP</t>
+  </si>
+  <si>
+    <t>4 Threads OpenMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +133,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -172,13 +190,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -195,6 +216,7 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -211,6 +233,7 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22339,6 +22362,302 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Type vs GigaMults Per Second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SIMD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 Threads OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Thread OpenMP</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000207502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000458604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000123546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00023485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1337383104"/>
+        <c:axId val="-1337397872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1337383104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1337397872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1337397872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1337383104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -24467,6 +24786,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -28080,6 +28439,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28821,6 +29683,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -33072,7 +33969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -55717,7 +56614,7 @@
   <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59837,9 +60734,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.0750200000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.5860399999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.2354600000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.3484999999999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
